--- a/doc/Project Management.xlsx
+++ b/doc/Project Management.xlsx
@@ -1060,7 +1060,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
